--- a/Code/Results/Cases/Case_2_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9858707165844213</v>
+        <v>1.020115423449706</v>
       </c>
       <c r="D2">
-        <v>1.007134779802048</v>
+        <v>1.025312318946697</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.995506429374227</v>
+        <v>1.031246982650435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039951794504046</v>
+        <v>1.029635171504589</v>
       </c>
       <c r="J2">
-        <v>1.008482404292188</v>
+        <v>1.025314357548987</v>
       </c>
       <c r="K2">
-        <v>1.018495602727082</v>
+        <v>1.028138258276699</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.007028723807666</v>
+        <v>1.034055653289509</v>
       </c>
       <c r="N2">
-        <v>1.006676693658921</v>
+        <v>1.012487563477529</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9916995136414221</v>
+        <v>1.021275462127896</v>
       </c>
       <c r="D3">
-        <v>1.011365240904149</v>
+        <v>1.026155751271619</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.001952204099666</v>
+        <v>1.032595985158203</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041801393612982</v>
+        <v>1.029900930594138</v>
       </c>
       <c r="J3">
-        <v>1.01241904469337</v>
+        <v>1.026110345184985</v>
       </c>
       <c r="K3">
-        <v>1.021854737674777</v>
+        <v>1.028788868759342</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.012560166903004</v>
+        <v>1.035211730778197</v>
       </c>
       <c r="N3">
-        <v>1.008000657988526</v>
+        <v>1.012753081312279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9953694923169664</v>
+        <v>1.022025217574907</v>
       </c>
       <c r="D4">
-        <v>1.014029864781405</v>
+        <v>1.026700509672601</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.006012806939676</v>
+        <v>1.033468088916878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042950233507507</v>
+        <v>1.030070736252279</v>
       </c>
       <c r="J4">
-        <v>1.014892393247069</v>
+        <v>1.026624054819904</v>
       </c>
       <c r="K4">
-        <v>1.023961860053147</v>
+        <v>1.02920822156968</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.016039200347519</v>
+        <v>1.035958473466297</v>
       </c>
       <c r="N4">
-        <v>1.00883222097568</v>
+        <v>1.012924361282109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9968891524204776</v>
+        <v>1.022340209641418</v>
       </c>
       <c r="D5">
-        <v>1.015133382008285</v>
+        <v>1.026929287907034</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.007694756636584</v>
+        <v>1.033834535385128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043422109831396</v>
+        <v>1.030141606317767</v>
       </c>
       <c r="J5">
-        <v>1.015915244956989</v>
+        <v>1.026839697202155</v>
       </c>
       <c r="K5">
-        <v>1.024832419406077</v>
+        <v>1.029384126890153</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.017478898197798</v>
+        <v>1.036272091767464</v>
       </c>
       <c r="N5">
-        <v>1.009176043179396</v>
+        <v>1.012996241475322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9971429811390975</v>
+        <v>1.022393086238469</v>
       </c>
       <c r="D6">
-        <v>1.015317708945889</v>
+        <v>1.026967686836978</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.007975724989138</v>
+        <v>1.033896052554642</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043500700069006</v>
+        <v>1.030153475454444</v>
       </c>
       <c r="J6">
-        <v>1.016086013557243</v>
+        <v>1.026875885717091</v>
       </c>
       <c r="K6">
-        <v>1.024977712095618</v>
+        <v>1.029413639290727</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.017719318049896</v>
+        <v>1.036324731429483</v>
       </c>
       <c r="N6">
-        <v>1.009233441193408</v>
+        <v>1.013008303106018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9953898878040031</v>
+        <v>1.02202942731725</v>
       </c>
       <c r="D7">
-        <v>1.01404467468652</v>
+        <v>1.026703567553438</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.006035378362216</v>
+        <v>1.033472986118942</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042956581846723</v>
+        <v>1.030071685249465</v>
       </c>
       <c r="J7">
-        <v>1.014906126263076</v>
+        <v>1.026626937504063</v>
       </c>
       <c r="K7">
-        <v>1.023973551720486</v>
+        <v>1.029210573558785</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.016058526202562</v>
+        <v>1.035962665273024</v>
       </c>
       <c r="N7">
-        <v>1.00883683748756</v>
+        <v>1.012925322242934</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9878623409286543</v>
+        <v>1.020507644994665</v>
       </c>
       <c r="D8">
-        <v>1.008580006871091</v>
+        <v>1.025597568184909</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9977084271183057</v>
+        <v>1.031703050231571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040587051995547</v>
+        <v>1.029725433189007</v>
       </c>
       <c r="J8">
-        <v>1.00982858674299</v>
+        <v>1.025583645213559</v>
       </c>
       <c r="K8">
-        <v>1.019644997371821</v>
+        <v>1.028358474410167</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.00891952895166</v>
+        <v>1.034446629488056</v>
       </c>
       <c r="N8">
-        <v>1.007129492920842</v>
+        <v>1.012577406038403</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9737638125277155</v>
+        <v>1.01781931706972</v>
       </c>
       <c r="D9">
-        <v>0.9983575810381835</v>
+        <v>1.023640965609473</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9821289105509472</v>
+        <v>1.028577983735095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036025138956549</v>
+        <v>1.029098742072558</v>
       </c>
       <c r="J9">
-        <v>1.000278313688918</v>
+        <v>1.023734843200181</v>
       </c>
       <c r="K9">
-        <v>1.011477361667474</v>
+        <v>1.026844394350911</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9955187447363238</v>
+        <v>1.031764964706753</v>
       </c>
       <c r="N9">
-        <v>1.003916256410113</v>
+        <v>1.011960269967594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9637183093335349</v>
+        <v>1.016022398741782</v>
       </c>
       <c r="D10">
-        <v>0.9910890635235845</v>
+        <v>1.022331331672458</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9710373513904379</v>
+        <v>1.026490209160944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032694581976518</v>
+        <v>1.028669788393571</v>
       </c>
       <c r="J10">
-        <v>0.9934492274836244</v>
+        <v>1.022495228081145</v>
       </c>
       <c r="K10">
-        <v>1.005621093400622</v>
+        <v>1.025826488343917</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9859499950982206</v>
+        <v>1.029970132772859</v>
       </c>
       <c r="N10">
-        <v>1.00161766789142</v>
+        <v>1.011546083927289</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.959193310121094</v>
+        <v>1.015243162145317</v>
       </c>
       <c r="D11">
-        <v>0.9878202067583008</v>
+        <v>1.021762989858258</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9660428465396013</v>
+        <v>1.025585087053981</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031176309846861</v>
+        <v>1.028481392040306</v>
       </c>
       <c r="J11">
-        <v>0.9903680604572389</v>
+        <v>1.021956759305155</v>
       </c>
       <c r="K11">
-        <v>1.002975530404108</v>
+        <v>1.025383687433847</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9816348724973877</v>
+        <v>1.029191234763901</v>
       </c>
       <c r="N11">
-        <v>1.000580462028847</v>
+        <v>1.01136607467436</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9574840950299386</v>
+        <v>1.014953541583591</v>
       </c>
       <c r="D12">
-        <v>0.9865864119561755</v>
+        <v>1.021551691445549</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9641564922946222</v>
+        <v>1.025248714444976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030600200008264</v>
+        <v>1.028411013364421</v>
       </c>
       <c r="J12">
-        <v>0.9892035390167164</v>
+        <v>1.021756489494399</v>
       </c>
       <c r="K12">
-        <v>1.001975187526787</v>
+        <v>1.025218903370738</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9800041956838461</v>
+        <v>1.028901654578024</v>
       </c>
       <c r="N12">
-        <v>1.000188442119779</v>
+        <v>1.011299110825484</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9578520502261609</v>
+        <v>1.01501567425716</v>
       </c>
       <c r="D13">
-        <v>0.9868519748903689</v>
+        <v>1.02159702433636</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9645625730720628</v>
+        <v>1.025320875273443</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030724340019144</v>
+        <v>1.028426127937154</v>
       </c>
       <c r="J13">
-        <v>0.9894542635909044</v>
+        <v>1.021799459780681</v>
       </c>
       <c r="K13">
-        <v>1.002190583974083</v>
+        <v>1.025254264077126</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9803552767859918</v>
+        <v>1.028963782463506</v>
       </c>
       <c r="N13">
-        <v>1.000272845355809</v>
+        <v>1.011313479351991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9590526187877872</v>
+        <v>1.015219225657022</v>
       </c>
       <c r="D14">
-        <v>0.9877186288739265</v>
+        <v>1.021745527769228</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9658875703985471</v>
+        <v>1.025557285881862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031128940845125</v>
+        <v>1.028475582678919</v>
       </c>
       <c r="J14">
-        <v>0.9902722181116543</v>
+        <v>1.021940210225955</v>
       </c>
       <c r="K14">
-        <v>1.002893209300275</v>
+        <v>1.025370072625281</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9815006609262404</v>
+        <v>1.029167303358116</v>
       </c>
       <c r="N14">
-        <v>1.000548198188606</v>
+        <v>1.011360541473549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9597884947967955</v>
+        <v>1.015344616788368</v>
       </c>
       <c r="D15">
-        <v>0.9882499639921627</v>
+        <v>1.021837000289334</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9666997392790048</v>
+        <v>1.025702923606906</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031376595132988</v>
+        <v>1.02850600036632</v>
       </c>
       <c r="J15">
-        <v>0.9907734874159015</v>
+        <v>1.022026896901352</v>
       </c>
       <c r="K15">
-        <v>1.003323742215021</v>
+        <v>1.025441385224866</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9822026149532911</v>
+        <v>1.029292664363129</v>
       </c>
       <c r="N15">
-        <v>1.000716942382047</v>
+        <v>1.011389524676871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9640147524046723</v>
+        <v>1.016074089410323</v>
       </c>
       <c r="D16">
-        <v>0.991303335215891</v>
+        <v>1.022369023945385</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9713645839980536</v>
+        <v>1.026550255542434</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03279368123736</v>
+        <v>1.028682235603331</v>
       </c>
       <c r="J16">
-        <v>0.9936509838781379</v>
+        <v>1.022530928337206</v>
       </c>
       <c r="K16">
-        <v>1.005794260898979</v>
+        <v>1.025855832457847</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9862325871596721</v>
+        <v>1.030021789024856</v>
       </c>
       <c r="N16">
-        <v>1.001685582835274</v>
+        <v>1.011558016504749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9666174436245806</v>
+        <v>1.016531355699868</v>
       </c>
       <c r="D17">
-        <v>0.9931851945634899</v>
+        <v>1.02270240955679</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9742377852564105</v>
+        <v>1.027081466358819</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033661717994102</v>
+        <v>1.028792071536205</v>
       </c>
       <c r="J17">
-        <v>0.9954217932923476</v>
+        <v>1.022846635429226</v>
       </c>
       <c r="K17">
-        <v>1.007313776486988</v>
+        <v>1.026115256821878</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9887131181158982</v>
+        <v>1.030478685452664</v>
       </c>
       <c r="N17">
-        <v>1.002281657310589</v>
+        <v>1.011663528761811</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9681187957781574</v>
+        <v>1.016797959775698</v>
       </c>
       <c r="D18">
-        <v>0.9942712217150266</v>
+        <v>1.022896746107145</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9758953427769642</v>
+        <v>1.027391206619724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034160737297152</v>
+        <v>1.028855880708849</v>
       </c>
       <c r="J18">
-        <v>0.9964428013913148</v>
+        <v>1.023030617449518</v>
       </c>
       <c r="K18">
-        <v>1.008189579504445</v>
+        <v>1.026266377849019</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9901435434915988</v>
+        <v>1.030745019332062</v>
       </c>
       <c r="N18">
-        <v>1.002625328124288</v>
+        <v>1.011725008257515</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9686279365593062</v>
+        <v>1.016888846041703</v>
       </c>
       <c r="D19">
-        <v>0.9946395946392809</v>
+        <v>1.022962989258798</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9764574850851583</v>
+        <v>1.027496802193599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034329673790445</v>
+        <v>1.028877594542715</v>
       </c>
       <c r="J19">
-        <v>0.9967889643710862</v>
+        <v>1.02309332270836</v>
       </c>
       <c r="K19">
-        <v>1.008486457527589</v>
+        <v>1.02631787287443</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9906285537181597</v>
+        <v>1.0308358042463</v>
       </c>
       <c r="N19">
-        <v>1.002741844121257</v>
+        <v>1.011745960337352</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9663399468622251</v>
+        <v>1.016482306924101</v>
       </c>
       <c r="D20">
-        <v>0.9929845009722971</v>
+        <v>1.022666653028251</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9739314303583777</v>
+        <v>1.027024483465121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033569345054603</v>
+        <v>1.028780313693116</v>
       </c>
       <c r="J20">
-        <v>0.99523304006724</v>
+        <v>1.022812780085524</v>
       </c>
       <c r="K20">
-        <v>1.007151841475298</v>
+        <v>1.026087443411702</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9884486936997215</v>
+        <v>1.030429681996781</v>
       </c>
       <c r="N20">
-        <v>1.002218122034908</v>
+        <v>1.011652214921906</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9586998840906562</v>
+        <v>1.015159289766336</v>
       </c>
       <c r="D21">
-        <v>0.9874639732595444</v>
+        <v>1.02170180249235</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9654982724944683</v>
+        <v>1.025487673577252</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031010137722444</v>
+        <v>1.028461030534968</v>
       </c>
       <c r="J21">
-        <v>0.9900319159825813</v>
+        <v>1.021898769881144</v>
       </c>
       <c r="K21">
-        <v>1.002686801292378</v>
+        <v>1.025335978410966</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9811641600930778</v>
+        <v>1.029107378811947</v>
       </c>
       <c r="N21">
-        <v>1.000467304072387</v>
+        <v>1.01134668562841</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9537305760024968</v>
+        <v>1.014326428392783</v>
       </c>
       <c r="D22">
-        <v>0.9838788533826197</v>
+        <v>1.021094057133137</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9600142876343311</v>
+        <v>1.024520434678154</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029330316341651</v>
+        <v>1.028257970561761</v>
       </c>
       <c r="J22">
-        <v>0.9866450214875861</v>
+        <v>1.021322598578854</v>
       </c>
       <c r="K22">
-        <v>0.9997765839618772</v>
+        <v>1.024861719288025</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9764217830616281</v>
+        <v>1.028274472031678</v>
       </c>
       <c r="N22">
-        <v>0.9993271445257033</v>
+        <v>1.011154006042934</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9563813707662032</v>
+        <v>1.014768042497995</v>
       </c>
       <c r="D23">
-        <v>0.9857906972613536</v>
+        <v>1.0214163397137</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.962939535660989</v>
+        <v>1.025033281214999</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030227788699656</v>
+        <v>1.028365836091587</v>
       </c>
       <c r="J23">
-        <v>0.9884520489199194</v>
+        <v>1.021628180453798</v>
       </c>
       <c r="K23">
-        <v>1.001329521757571</v>
+        <v>1.025113302549688</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9789519327033704</v>
+        <v>1.028716157241147</v>
       </c>
       <c r="N23">
-        <v>0.9999354617818363</v>
+        <v>1.011256204444047</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9664653873223438</v>
+        <v>1.016504470299371</v>
       </c>
       <c r="D24">
-        <v>0.9930752216075547</v>
+        <v>1.022682810240266</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9740699154270811</v>
+        <v>1.027050231909376</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033611106890404</v>
+        <v>1.028785627348136</v>
       </c>
       <c r="J24">
-        <v>0.9953183661194843</v>
+        <v>1.022828078366569</v>
       </c>
       <c r="K24">
-        <v>1.007225045312565</v>
+        <v>1.026100011702682</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9885682263227518</v>
+        <v>1.030451825062155</v>
       </c>
       <c r="N24">
-        <v>1.002246843247151</v>
+        <v>1.011657327356966</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9775157782707437</v>
+        <v>1.01851513087441</v>
       </c>
       <c r="D25">
-        <v>1.00107593010202</v>
+        <v>1.024147711891902</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9862732922095243</v>
+        <v>1.029386647135529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03725316163947</v>
+        <v>1.029262721324723</v>
       </c>
       <c r="J25">
-        <v>1.002824264136725</v>
+        <v>1.024214043680313</v>
       </c>
       <c r="K25">
-        <v>1.013657566571063</v>
+        <v>1.027237316995462</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9990885019408841</v>
+        <v>1.032459469116044</v>
       </c>
       <c r="N25">
-        <v>1.004773037954563</v>
+        <v>1.012120299027044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_96/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_96/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.020115423449706</v>
+        <v>0.9858707165844213</v>
       </c>
       <c r="D2">
-        <v>1.025312318946697</v>
+        <v>1.007134779802048</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.031246982650435</v>
+        <v>0.995506429374227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029635171504589</v>
+        <v>1.039951794504046</v>
       </c>
       <c r="J2">
-        <v>1.025314357548987</v>
+        <v>1.008482404292188</v>
       </c>
       <c r="K2">
-        <v>1.028138258276699</v>
+        <v>1.018495602727082</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.034055653289509</v>
+        <v>1.007028723807666</v>
       </c>
       <c r="N2">
-        <v>1.012487563477529</v>
+        <v>1.006676693658921</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021275462127896</v>
+        <v>0.9916995136414227</v>
       </c>
       <c r="D3">
-        <v>1.026155751271619</v>
+        <v>1.01136524090415</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.032595985158203</v>
+        <v>1.001952204099667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029900930594138</v>
+        <v>1.041801393612983</v>
       </c>
       <c r="J3">
-        <v>1.026110345184985</v>
+        <v>1.012419044693371</v>
       </c>
       <c r="K3">
-        <v>1.028788868759342</v>
+        <v>1.021854737674778</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.035211730778197</v>
+        <v>1.012560166903005</v>
       </c>
       <c r="N3">
-        <v>1.012753081312279</v>
+        <v>1.008000657988527</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022025217574907</v>
+        <v>0.9953694923169655</v>
       </c>
       <c r="D4">
-        <v>1.026700509672601</v>
+        <v>1.014029864781404</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.033468088916878</v>
+        <v>1.006012806939675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030070736252279</v>
+        <v>1.042950233507506</v>
       </c>
       <c r="J4">
-        <v>1.026624054819904</v>
+        <v>1.014892393247068</v>
       </c>
       <c r="K4">
-        <v>1.02920822156968</v>
+        <v>1.023961860053146</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.035958473466297</v>
+        <v>1.016039200347518</v>
       </c>
       <c r="N4">
-        <v>1.012924361282109</v>
+        <v>1.008832220975679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022340209641418</v>
+        <v>0.9968891524204774</v>
       </c>
       <c r="D5">
-        <v>1.026929287907034</v>
+        <v>1.015133382008285</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.033834535385128</v>
+        <v>1.007694756636583</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030141606317767</v>
+        <v>1.043422109831396</v>
       </c>
       <c r="J5">
-        <v>1.026839697202155</v>
+        <v>1.015915244956989</v>
       </c>
       <c r="K5">
-        <v>1.029384126890153</v>
+        <v>1.024832419406077</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.036272091767464</v>
+        <v>1.017478898197798</v>
       </c>
       <c r="N5">
-        <v>1.012996241475322</v>
+        <v>1.009176043179396</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022393086238469</v>
+        <v>0.9971429811390983</v>
       </c>
       <c r="D6">
-        <v>1.026967686836978</v>
+        <v>1.01531770894589</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.033896052554642</v>
+        <v>1.007975724989139</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030153475454444</v>
+        <v>1.043500700069006</v>
       </c>
       <c r="J6">
-        <v>1.026875885717091</v>
+        <v>1.016086013557244</v>
       </c>
       <c r="K6">
-        <v>1.029413639290727</v>
+        <v>1.024977712095619</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.036324731429483</v>
+        <v>1.017719318049897</v>
       </c>
       <c r="N6">
-        <v>1.013008303106018</v>
+        <v>1.009233441193408</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02202942731725</v>
+        <v>0.9953898878040032</v>
       </c>
       <c r="D7">
-        <v>1.026703567553438</v>
+        <v>1.01404467468652</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.033472986118942</v>
+        <v>1.006035378362216</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030071685249465</v>
+        <v>1.042956581846723</v>
       </c>
       <c r="J7">
-        <v>1.026626937504063</v>
+        <v>1.014906126263076</v>
       </c>
       <c r="K7">
-        <v>1.029210573558785</v>
+        <v>1.023973551720486</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.035962665273024</v>
+        <v>1.016058526202562</v>
       </c>
       <c r="N7">
-        <v>1.012925322242934</v>
+        <v>1.00883683748756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020507644994665</v>
+        <v>0.9878623409286552</v>
       </c>
       <c r="D8">
-        <v>1.025597568184909</v>
+        <v>1.008580006871092</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.031703050231571</v>
+        <v>0.9977084271183069</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029725433189007</v>
+        <v>1.040587051995547</v>
       </c>
       <c r="J8">
-        <v>1.025583645213559</v>
+        <v>1.00982858674299</v>
       </c>
       <c r="K8">
-        <v>1.028358474410167</v>
+        <v>1.019644997371821</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.034446629488056</v>
+        <v>1.008919528951661</v>
       </c>
       <c r="N8">
-        <v>1.012577406038403</v>
+        <v>1.007129492920842</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01781931706972</v>
+        <v>0.9737638125277166</v>
       </c>
       <c r="D9">
-        <v>1.023640965609473</v>
+        <v>0.9983575810381845</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.028577983735095</v>
+        <v>0.9821289105509474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029098742072558</v>
+        <v>1.036025138956549</v>
       </c>
       <c r="J9">
-        <v>1.023734843200181</v>
+        <v>1.000278313688919</v>
       </c>
       <c r="K9">
-        <v>1.026844394350911</v>
+        <v>1.011477361667474</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.031764964706753</v>
+        <v>0.9955187447363241</v>
       </c>
       <c r="N9">
-        <v>1.011960269967594</v>
+        <v>1.003916256410113</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016022398741782</v>
+        <v>0.9637183093335353</v>
       </c>
       <c r="D10">
-        <v>1.022331331672458</v>
+        <v>0.9910890635235851</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.026490209160944</v>
+        <v>0.9710373513904388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028669788393571</v>
+        <v>1.032694581976519</v>
       </c>
       <c r="J10">
-        <v>1.022495228081145</v>
+        <v>0.9934492274836249</v>
       </c>
       <c r="K10">
-        <v>1.025826488343917</v>
+        <v>1.005621093400622</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.029970132772859</v>
+        <v>0.9859499950982213</v>
       </c>
       <c r="N10">
-        <v>1.011546083927289</v>
+        <v>1.001617667891421</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015243162145317</v>
+        <v>0.959193310121094</v>
       </c>
       <c r="D11">
-        <v>1.021762989858258</v>
+        <v>0.9878202067583007</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.025585087053981</v>
+        <v>0.9660428465396013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028481392040306</v>
+        <v>1.031176309846861</v>
       </c>
       <c r="J11">
-        <v>1.021956759305155</v>
+        <v>0.9903680604572388</v>
       </c>
       <c r="K11">
-        <v>1.025383687433847</v>
+        <v>1.002975530404108</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.029191234763901</v>
+        <v>0.9816348724973876</v>
       </c>
       <c r="N11">
-        <v>1.01136607467436</v>
+        <v>1.000580462028847</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014953541583591</v>
+        <v>0.9574840950299391</v>
       </c>
       <c r="D12">
-        <v>1.021551691445549</v>
+        <v>0.9865864119561758</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.025248714444976</v>
+        <v>0.9641564922946226</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028411013364421</v>
+        <v>1.030600200008264</v>
       </c>
       <c r="J12">
-        <v>1.021756489494399</v>
+        <v>0.989203539016717</v>
       </c>
       <c r="K12">
-        <v>1.025218903370738</v>
+        <v>1.001975187526788</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.028901654578024</v>
+        <v>0.9800041956838466</v>
       </c>
       <c r="N12">
-        <v>1.011299110825484</v>
+        <v>1.000188442119779</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01501567425716</v>
+        <v>0.9578520502261604</v>
       </c>
       <c r="D13">
-        <v>1.02159702433636</v>
+        <v>0.9868519748903684</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.025320875273443</v>
+        <v>0.9645625730720623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028426127937154</v>
+        <v>1.030724340019143</v>
       </c>
       <c r="J13">
-        <v>1.021799459780681</v>
+        <v>0.989454263590904</v>
       </c>
       <c r="K13">
-        <v>1.025254264077126</v>
+        <v>1.002190583974082</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.028963782463506</v>
+        <v>0.9803552767859913</v>
       </c>
       <c r="N13">
-        <v>1.011313479351991</v>
+        <v>1.000272845355809</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015219225657022</v>
+        <v>0.9590526187877871</v>
       </c>
       <c r="D14">
-        <v>1.021745527769228</v>
+        <v>0.9877186288739264</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.025557285881862</v>
+        <v>0.9658875703985466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028475582678919</v>
+        <v>1.031128940845125</v>
       </c>
       <c r="J14">
-        <v>1.021940210225955</v>
+        <v>0.9902722181116541</v>
       </c>
       <c r="K14">
-        <v>1.025370072625281</v>
+        <v>1.002893209300275</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.029167303358116</v>
+        <v>0.98150066092624</v>
       </c>
       <c r="N14">
-        <v>1.011360541473549</v>
+        <v>1.000548198188606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015344616788368</v>
+        <v>0.9597884947967954</v>
       </c>
       <c r="D15">
-        <v>1.021837000289334</v>
+        <v>0.988249963992162</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.025702923606906</v>
+        <v>0.9666997392790041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02850600036632</v>
+        <v>1.031376595132988</v>
       </c>
       <c r="J15">
-        <v>1.022026896901352</v>
+        <v>0.9907734874159012</v>
       </c>
       <c r="K15">
-        <v>1.025441385224866</v>
+        <v>1.003323742215021</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.029292664363129</v>
+        <v>0.9822026149532905</v>
       </c>
       <c r="N15">
-        <v>1.011389524676871</v>
+        <v>1.000716942382047</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016074089410323</v>
+        <v>0.9640147524046726</v>
       </c>
       <c r="D16">
-        <v>1.022369023945385</v>
+        <v>0.9913033352158918</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.026550255542434</v>
+        <v>0.9713645839980544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028682235603331</v>
+        <v>1.03279368123736</v>
       </c>
       <c r="J16">
-        <v>1.022530928337206</v>
+        <v>0.9936509838781385</v>
       </c>
       <c r="K16">
-        <v>1.025855832457847</v>
+        <v>1.00579426089898</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.030021789024856</v>
+        <v>0.9862325871596728</v>
       </c>
       <c r="N16">
-        <v>1.011558016504749</v>
+        <v>1.001685582835274</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016531355699868</v>
+        <v>0.9666174436245811</v>
       </c>
       <c r="D17">
-        <v>1.02270240955679</v>
+        <v>0.9931851945634904</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.027081466358819</v>
+        <v>0.9742377852564108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028792071536205</v>
+        <v>1.033661717994102</v>
       </c>
       <c r="J17">
-        <v>1.022846635429226</v>
+        <v>0.9954217932923481</v>
       </c>
       <c r="K17">
-        <v>1.026115256821878</v>
+        <v>1.007313776486988</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.030478685452664</v>
+        <v>0.9887131181158987</v>
       </c>
       <c r="N17">
-        <v>1.011663528761811</v>
+        <v>1.002281657310589</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016797959775698</v>
+        <v>0.9681187957781577</v>
       </c>
       <c r="D18">
-        <v>1.022896746107145</v>
+        <v>0.9942712217150265</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.027391206619724</v>
+        <v>0.9758953427769643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028855880708849</v>
+        <v>1.034160737297152</v>
       </c>
       <c r="J18">
-        <v>1.023030617449518</v>
+        <v>0.996442801391315</v>
       </c>
       <c r="K18">
-        <v>1.026266377849019</v>
+        <v>1.008189579504445</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.030745019332062</v>
+        <v>0.9901435434915988</v>
       </c>
       <c r="N18">
-        <v>1.011725008257515</v>
+        <v>1.002625328124288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016888846041703</v>
+        <v>0.9686279365593058</v>
       </c>
       <c r="D19">
-        <v>1.022962989258798</v>
+        <v>0.9946395946392803</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.027496802193599</v>
+        <v>0.9764574850851581</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028877594542715</v>
+        <v>1.034329673790445</v>
       </c>
       <c r="J19">
-        <v>1.02309332270836</v>
+        <v>0.996788964371086</v>
       </c>
       <c r="K19">
-        <v>1.02631787287443</v>
+        <v>1.008486457527588</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.0308358042463</v>
+        <v>0.9906285537181595</v>
       </c>
       <c r="N19">
-        <v>1.011745960337352</v>
+        <v>1.002741844121257</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016482306924101</v>
+        <v>0.9663399468622245</v>
       </c>
       <c r="D20">
-        <v>1.022666653028251</v>
+        <v>0.9929845009722966</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.027024483465121</v>
+        <v>0.9739314303583767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028780313693116</v>
+        <v>1.033569345054603</v>
       </c>
       <c r="J20">
-        <v>1.022812780085524</v>
+        <v>0.9952330400672393</v>
       </c>
       <c r="K20">
-        <v>1.026087443411702</v>
+        <v>1.007151841475298</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.030429681996781</v>
+        <v>0.9884486936997205</v>
       </c>
       <c r="N20">
-        <v>1.011652214921906</v>
+        <v>1.002218122034908</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015159289766336</v>
+        <v>0.9586998840906557</v>
       </c>
       <c r="D21">
-        <v>1.02170180249235</v>
+        <v>0.9874639732595444</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.025487673577252</v>
+        <v>0.9654982724944684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028461030534968</v>
+        <v>1.031010137722444</v>
       </c>
       <c r="J21">
-        <v>1.021898769881144</v>
+        <v>0.9900319159825811</v>
       </c>
       <c r="K21">
-        <v>1.025335978410966</v>
+        <v>1.002686801292378</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.029107378811947</v>
+        <v>0.9811641600930778</v>
       </c>
       <c r="N21">
-        <v>1.01134668562841</v>
+        <v>1.000467304072387</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014326428392783</v>
+        <v>0.9537305760024977</v>
       </c>
       <c r="D22">
-        <v>1.021094057133137</v>
+        <v>0.9838788533826203</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.024520434678154</v>
+        <v>0.9600142876343315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028257970561761</v>
+        <v>1.029330316341651</v>
       </c>
       <c r="J22">
-        <v>1.021322598578854</v>
+        <v>0.9866450214875867</v>
       </c>
       <c r="K22">
-        <v>1.024861719288025</v>
+        <v>0.9997765839618777</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.028274472031678</v>
+        <v>0.9764217830616286</v>
       </c>
       <c r="N22">
-        <v>1.011154006042934</v>
+        <v>0.9993271445257034</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.014768042497995</v>
+        <v>0.9563813707662019</v>
       </c>
       <c r="D23">
-        <v>1.0214163397137</v>
+        <v>0.9857906972613526</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.025033281214999</v>
+        <v>0.962939535660988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028365836091587</v>
+        <v>1.030227788699655</v>
       </c>
       <c r="J23">
-        <v>1.021628180453798</v>
+        <v>0.9884520489199182</v>
       </c>
       <c r="K23">
-        <v>1.025113302549688</v>
+        <v>1.00132952175757</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.028716157241147</v>
+        <v>0.9789519327033694</v>
       </c>
       <c r="N23">
-        <v>1.011256204444047</v>
+        <v>0.999935461781836</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016504470299371</v>
+        <v>0.9664653873223435</v>
       </c>
       <c r="D24">
-        <v>1.022682810240266</v>
+        <v>0.9930752216075542</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.027050231909376</v>
+        <v>0.9740699154270813</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028785627348136</v>
+        <v>1.033611106890404</v>
       </c>
       <c r="J24">
-        <v>1.022828078366569</v>
+        <v>0.9953183661194841</v>
       </c>
       <c r="K24">
-        <v>1.026100011702682</v>
+        <v>1.007225045312565</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.030451825062155</v>
+        <v>0.9885682263227519</v>
       </c>
       <c r="N24">
-        <v>1.011657327356966</v>
+        <v>1.002246843247151</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01851513087441</v>
+        <v>0.9775157782707441</v>
       </c>
       <c r="D25">
-        <v>1.024147711891902</v>
+        <v>1.00107593010202</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.029386647135529</v>
+        <v>0.9862732922095245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029262721324723</v>
+        <v>1.03725316163947</v>
       </c>
       <c r="J25">
-        <v>1.024214043680313</v>
+        <v>1.002824264136725</v>
       </c>
       <c r="K25">
-        <v>1.027237316995462</v>
+        <v>1.013657566571063</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.032459469116044</v>
+        <v>0.9990885019408845</v>
       </c>
       <c r="N25">
-        <v>1.012120299027044</v>
+        <v>1.004773037954563</v>
       </c>
     </row>
   </sheetData>
